--- a/Báo cáo/2_LONG XUYÊN/Báo cáo cá nhân/NV-40 Sang sang 8-2024.xlsx
+++ b/Báo cáo/2_LONG XUYÊN/Báo cáo cá nhân/NV-40 Sang sang 8-2024.xlsx
@@ -557,7 +557,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>70000</v>
       </c>
     </row>
     <row r="14">
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>214285.7142857143</v>
       </c>
     </row>
     <row r="15">
@@ -767,7 +767,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>284285.7142857143</v>
       </c>
     </row>
     <row r="34">
@@ -783,11 +783,11 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Tổng lương</t>
+          <t>Tổng lương tại HỆ THỐNG</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>284285.7142857143</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/2_LONG XUYÊN/Báo cáo cá nhân/NV-40 Sang sang 8-2024.xlsx
+++ b/Báo cáo/2_LONG XUYÊN/Báo cáo cá nhân/NV-40 Sang sang 8-2024.xlsx
@@ -557,7 +557,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="13">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>70000</v>
+        <v>87500</v>
       </c>
     </row>
     <row r="14">
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>214285.7142857143</v>
+        <v>267857.1428571428</v>
       </c>
     </row>
     <row r="15">
@@ -767,7 +767,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>284285.7142857143</v>
+        <v>355357.1428571428</v>
       </c>
     </row>
     <row r="34">
@@ -787,7 +787,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>284285.7142857143</v>
+        <v>355357.1428571428</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/2_LONG XUYÊN/Báo cáo cá nhân/NV-40 Sang sang 8-2024.xlsx
+++ b/Báo cáo/2_LONG XUYÊN/Báo cáo cá nhân/NV-40 Sang sang 8-2024.xlsx
@@ -557,7 +557,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>87500</v>
+        <v>245000</v>
       </c>
     </row>
     <row r="14">
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>267857.1428571428</v>
+        <v>750000</v>
       </c>
     </row>
     <row r="15">
@@ -767,7 +767,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>355357.1428571428</v>
+        <v>995000</v>
       </c>
     </row>
     <row r="34">
@@ -787,7 +787,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>355357.1428571428</v>
+        <v>995000</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/2_LONG XUYÊN/Báo cáo cá nhân/NV-40 Sang sang 8-2024.xlsx
+++ b/Báo cáo/2_LONG XUYÊN/Báo cáo cá nhân/NV-40 Sang sang 8-2024.xlsx
@@ -557,7 +557,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>245000</v>
+        <v>280000</v>
       </c>
     </row>
     <row r="14">
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>750000</v>
+        <v>857142.8571428572</v>
       </c>
     </row>
     <row r="15">
@@ -767,7 +767,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>995000</v>
+        <v>1137142.857142857</v>
       </c>
     </row>
     <row r="34">
@@ -787,7 +787,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>995000</v>
+        <v>1137142.857142857</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/2_LONG XUYÊN/Báo cáo cá nhân/NV-40 Sang sang 8-2024.xlsx
+++ b/Báo cáo/2_LONG XUYÊN/Báo cáo cá nhân/NV-40 Sang sang 8-2024.xlsx
@@ -414,14 +414,177 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Tiền tố</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Mã dịch vụ</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Ngày thực hiện</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Cơ sở</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Khách hàng</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Nguồn khách</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Tên dịch vụ</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Đơn giá gốc</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Sale phụ</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Upsale</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Đơn giá</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Đã thanh toán</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Tỉ lệ chiết khấu sale chính</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale chính</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>650</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>08-15-2024</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Mẹ mai sang</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Nâng cung chân mày</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9000000</v>
+      </c>
+      <c r="I2" t="n">
+        <v/>
+      </c>
+      <c r="J2" t="n">
+        <v/>
+      </c>
+      <c r="K2" t="n">
+        <v>9000000</v>
+      </c>
+      <c r="L2" t="n">
+        <v>9000000</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1170000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Tổng</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="n">
+        <v>9000000</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>9000000</v>
+      </c>
+      <c r="L3" t="n">
+        <v>9000000</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1170000</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -547,7 +710,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="12">
@@ -557,7 +720,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
@@ -567,7 +730,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>280000</v>
+        <v>630000</v>
       </c>
     </row>
     <row r="14">
@@ -577,7 +740,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>857142.8571428572</v>
+        <v>1928571.428571429</v>
       </c>
     </row>
     <row r="15">
@@ -587,7 +750,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>1170000</v>
       </c>
     </row>
     <row r="16">
@@ -647,7 +810,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>-2000000</v>
       </c>
     </row>
     <row r="22">
@@ -747,7 +910,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="32">
@@ -767,7 +930,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1137142.857142857</v>
+        <v>1728571.428571429</v>
       </c>
     </row>
     <row r="34">
@@ -787,7 +950,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1137142.857142857</v>
+        <v>1728571.428571429</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/2_LONG XUYÊN/Báo cáo cá nhân/NV-40 Sang sang 8-2024.xlsx
+++ b/Báo cáo/2_LONG XUYÊN/Báo cáo cá nhân/NV-40 Sang sang 8-2024.xlsx
@@ -810,7 +810,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-2000000</v>
+        <v>-2500000</v>
       </c>
     </row>
     <row r="22">
@@ -930,7 +930,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1728571.428571429</v>
+        <v>1228571.428571429</v>
       </c>
     </row>
     <row r="34">
@@ -950,7 +950,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1728571.428571429</v>
+        <v>1228571.428571429</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/2_LONG XUYÊN/Báo cáo cá nhân/NV-40 Sang sang 8-2024.xlsx
+++ b/Báo cáo/2_LONG XUYÊN/Báo cáo cá nhân/NV-40 Sang sang 8-2024.xlsx
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13">
@@ -730,7 +730,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>630000</v>
+        <v>700000</v>
       </c>
     </row>
     <row r="14">
@@ -740,7 +740,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1928571.428571429</v>
+        <v>2142857.142857143</v>
       </c>
     </row>
     <row r="15">
@@ -930,7 +930,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1228571.428571429</v>
+        <v>1512857.142857143</v>
       </c>
     </row>
     <row r="34">
@@ -950,7 +950,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1228571.428571429</v>
+        <v>1512857.142857143</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/2_LONG XUYÊN/Báo cáo cá nhân/NV-40 Sang sang 8-2024.xlsx
+++ b/Báo cáo/2_LONG XUYÊN/Báo cáo cá nhân/NV-40 Sang sang 8-2024.xlsx
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13">
@@ -730,7 +730,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>700000</v>
+        <v>735000</v>
       </c>
     </row>
     <row r="14">
@@ -740,7 +740,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2142857.142857143</v>
+        <v>2250000</v>
       </c>
     </row>
     <row r="15">
@@ -930,7 +930,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1512857.142857143</v>
+        <v>1655000</v>
       </c>
     </row>
     <row r="34">
@@ -950,7 +950,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1512857.142857143</v>
+        <v>1655000</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/2_LONG XUYÊN/Báo cáo cá nhân/NV-40 Sang sang 8-2024.xlsx
+++ b/Báo cáo/2_LONG XUYÊN/Báo cáo cá nhân/NV-40 Sang sang 8-2024.xlsx
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
@@ -730,7 +730,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>735000</v>
+        <v>770000</v>
       </c>
     </row>
     <row r="14">
@@ -740,7 +740,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2250000</v>
+        <v>2357142.857142857</v>
       </c>
     </row>
     <row r="15">
@@ -930,7 +930,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1655000</v>
+        <v>1797142.857142857</v>
       </c>
     </row>
     <row r="34">
@@ -950,7 +950,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1655000</v>
+        <v>1797142.857142857</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/2_LONG XUYÊN/Báo cáo cá nhân/NV-40 Sang sang 8-2024.xlsx
+++ b/Báo cáo/2_LONG XUYÊN/Báo cáo cá nhân/NV-40 Sang sang 8-2024.xlsx
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13">
@@ -730,7 +730,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>770000</v>
+        <v>840000</v>
       </c>
     </row>
     <row r="14">
@@ -740,7 +740,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2357142.857142857</v>
+        <v>2571428.571428571</v>
       </c>
     </row>
     <row r="15">
@@ -930,7 +930,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1797142.857142857</v>
+        <v>2081428.571428571</v>
       </c>
     </row>
     <row r="34">
@@ -950,7 +950,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1797142.857142857</v>
+        <v>2081428.571428571</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/2_LONG XUYÊN/Báo cáo cá nhân/NV-40 Sang sang 8-2024.xlsx
+++ b/Báo cáo/2_LONG XUYÊN/Báo cáo cá nhân/NV-40 Sang sang 8-2024.xlsx
@@ -610,7 +610,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2">
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13">
@@ -730,7 +730,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>840000</v>
+        <v>875000</v>
       </c>
     </row>
     <row r="14">
@@ -740,7 +740,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2571428.571428571</v>
+        <v>2678571.428571429</v>
       </c>
     </row>
     <row r="15">
@@ -930,7 +930,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2081428.571428571</v>
+        <v>2223571.428571429</v>
       </c>
     </row>
     <row r="34">
@@ -950,7 +950,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2081428.571428571</v>
+        <v>2223571.428571429</v>
       </c>
     </row>
   </sheetData>
